--- a/project2-endorsements/endorsements.xlsx
+++ b/project2-endorsements/endorsements.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13460" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="endorsements.csv" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Spatial Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Circulation" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5484" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6430" uniqueCount="1074">
   <si>
     <t>publication</t>
   </si>
@@ -2251,13 +2252,1012 @@
   </si>
   <si>
     <t>Unknown/Democrat</t>
+  </si>
+  <si>
+    <t>03/2015-AR</t>
+  </si>
+  <si>
+    <t>AAM</t>
+  </si>
+  <si>
+    <t>DLY</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Winnipeg</t>
+  </si>
+  <si>
+    <t>FP Canadian Newspapers Limited Partnership</t>
+  </si>
+  <si>
+    <t>Winnipeg Free Press</t>
+  </si>
+  <si>
+    <t>09/2015-AR</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Nash Holdings, LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington Post-Savings Now </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington Post </t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Dow Jones/A News Corporation Co.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wall Street Journal Eastern Central Western </t>
+  </si>
+  <si>
+    <t>12/2015-AR</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Norfolk</t>
+  </si>
+  <si>
+    <t>Landmark Media Enterprises, LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginian-Pilot </t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>Postmedia Network Inc.</t>
+  </si>
+  <si>
+    <t>Vancouver Sun</t>
+  </si>
+  <si>
+    <t>Gannett Company Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA Today-Usa Today Local/Life </t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA Today-Usa Today Life </t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA Today </t>
+  </si>
+  <si>
+    <t>03/2016-AR</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Trib Total Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tribune Review </t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>Advance Publications, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Times-Picayune </t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>Hearst Newspapers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Times Union </t>
+  </si>
+  <si>
+    <t>06/2015-AR</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Star-Ledger </t>
+  </si>
+  <si>
+    <t>12/2014-AR</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>tronc, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The San Diego Union-Tribune-Local Community Values </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The San Diego Union-Tribune-Hoy San Diego </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The San Diego Union-Tribune </t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Salt Lake City</t>
+  </si>
+  <si>
+    <t>Newspaper Agency Corporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Salt Lake Tribune </t>
+  </si>
+  <si>
+    <t>Woodland Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Record </t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>West Palm Beach</t>
+  </si>
+  <si>
+    <t>Cox Media Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Palm Beach Post-Red Plum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Palm Beach Post </t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>McClatchy Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Miami Herald </t>
+  </si>
+  <si>
+    <t>San Jose</t>
+  </si>
+  <si>
+    <t>Digital First Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mercury News-Contra Costa Times </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mercury News </t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>Gannett Company Inc./MediaNews Group, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Detroit News </t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennessean </t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Worcester</t>
+  </si>
+  <si>
+    <t>GateHouse Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telegram &amp; Gazette, Sunday Telegram-Telegram &amp; Gazette Direct </t>
+  </si>
+  <si>
+    <t>St. Petersburg</t>
+  </si>
+  <si>
+    <t>Times Publishing Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampa Bay Times (formerly St. Petersburg Times) </t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Baltimore Sun </t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State-Yes - Sunday Select </t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Minneapolis</t>
+  </si>
+  <si>
+    <t>Star Tribune Media Intermediate Holdings Co. II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star Tribune </t>
+  </si>
+  <si>
+    <t>Ogden</t>
+  </si>
+  <si>
+    <t>Ogden Publishing Corp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard-Examiner-Se Plus </t>
+  </si>
+  <si>
+    <t>St. Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Paul Pioneer Press </t>
+  </si>
+  <si>
+    <t>Ft. Lauderdale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Florida Sun-Sentinel-El Sentinel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Florida Sun-Sentinel </t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Seattle Times Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seattle Times </t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Francisco Chronicle </t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Antonio Express-News-The San Antonio Light </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Antonio Express-News </t>
+  </si>
+  <si>
+    <t>West Valley City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salt Lake Tribune/Deseret News </t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>St. Louis</t>
+  </si>
+  <si>
+    <t>Lee Enterprises, Incorporated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Louis Post-Dispatch-Save Now </t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Louis Post-Dispatch </t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacramento Bee </t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>BH Media Group Holdings, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richmond Times-Dispatch </t>
+  </si>
+  <si>
+    <t>Springfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republican-Extra </t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>Providence</t>
+  </si>
+  <si>
+    <t>New Media Investment Group, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Providence Journal-A La Carte </t>
+  </si>
+  <si>
+    <t>Riverside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Press-Enterprise </t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post-Standard </t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plain Dealer Plain Dealer Sunday </t>
+  </si>
+  <si>
+    <t>Block Communications, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pittsburgh Post-Gazette </t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Philadelphia Media Network, PBC d/b/a/ Interstate General Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philadelphia Inquirer </t>
+  </si>
+  <si>
+    <t>Mechanicsburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patriot-News Sunday Patriot News </t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orlando Sentinel-El Sentinel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orlando Sentinel </t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregonian </t>
+  </si>
+  <si>
+    <t>Santa Ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange County Register-O C Saver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange County Register-Excelsior </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange County Register </t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Omaha</t>
+  </si>
+  <si>
+    <t>Omaha World-Herald Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omaha World-Herald </t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Oklahoma City</t>
+  </si>
+  <si>
+    <t>Oklahoma Publishing Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoman </t>
+  </si>
+  <si>
+    <t>Long Island</t>
+  </si>
+  <si>
+    <t>Newsday Holdings LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newsday-Hometown Shopper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newsday </t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Raleigh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">News &amp; Observer </t>
+  </si>
+  <si>
+    <t>New York Times Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York Times-International New York Times </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York Times </t>
+  </si>
+  <si>
+    <t>News Corporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York Post </t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>National Post</t>
+  </si>
+  <si>
+    <t>Allentown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morning Call </t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milwaukee Journal Sentinel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miami Herald/El Nuevo Herald </t>
+  </si>
+  <si>
+    <t>CAC</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Guaynabo</t>
+  </si>
+  <si>
+    <t>Metro International S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metro Puerto Rico LLC </t>
+  </si>
+  <si>
+    <t>SB New York, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metro New York </t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Angeles Times-Hoy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Angeles Times </t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>Las Vegas Review-Journal, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las Vegas Review-Journal-View </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las Vegas Review-Journal </t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Montreal</t>
+  </si>
+  <si>
+    <t>Gesca Ltee</t>
+  </si>
+  <si>
+    <t>La Presse</t>
+  </si>
+  <si>
+    <t>Lozano Enterprises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Opinion-La Opinion Contigo </t>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansas City Star </t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Indianapolis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indianapolis Star </t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston Chronicle-La Voz De Houston </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston Chronicle-Community Extra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston Chronicle </t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Honolulu</t>
+  </si>
+  <si>
+    <t>Oahu Publications, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honolulu Star-Advertiser-Midweek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honolulu Star-Advertiser </t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Hartford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hartford Courant </t>
+  </si>
+  <si>
+    <t>The Globe and Mail Inc.</t>
+  </si>
+  <si>
+    <t>Globe And Mail</t>
+  </si>
+  <si>
+    <t>Fresno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresno Bee </t>
+  </si>
+  <si>
+    <t>Fort Worth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Worth Star-Telegram-La Estrella </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Worth Star-Telegram </t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>Morris Publishing Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida Times-Union </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Express </t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>Publi-Inversiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Vocero de Puerto Rico </t>
+  </si>
+  <si>
+    <t>GFR Media, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Nuevo Dia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detroit Free Press, The Detroit News-Your Essential Shopper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detroit Free Press, The Detroit News </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detroit Free Press </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deseret Morning News </t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Des Moines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Des Moines Register </t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Denver Post/The Sunday Denver Post-Sunday Select </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Denver Post/The Sunday Denver Post </t>
+  </si>
+  <si>
+    <t>Rochester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democrat And Chronicle </t>
+  </si>
+  <si>
+    <t>03/2013-AR</t>
+  </si>
+  <si>
+    <t>Dayton</t>
+  </si>
+  <si>
+    <t>Cox Media Group Ohio, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dayton Daily News/Springfield News-Sun </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dayton Daily News </t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>A.H. Belo Corporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dallas Morning News-Briefing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dallas Morning News-Al Dia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dallas Morning News </t>
+  </si>
+  <si>
+    <t>Woodland Hills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily News-The Weekend Spotlight </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily News-Impacto Usa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily News </t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Courier-Journal </t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial Appeal </t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbus Dispatch </t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cincinnati Enquirer </t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago Tribune </t>
+  </si>
+  <si>
+    <t>Wrapports, LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago Sun-Times </t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlotte Observer </t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Calgary</t>
+  </si>
+  <si>
+    <t>Calgary Herald</t>
+  </si>
+  <si>
+    <t>06/2016-AR</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>The Buffalo News</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffalo News </t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Boston Globe Media Partners LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boston Globe </t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blade </t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Birmingham News </t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austin American-Statesman-Statesman Tmc/Red Plum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austin American-Statesman </t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlanta Journal-Constitution-Evening Edge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlanta Journal-Constitution-Buyers Edge Select </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlanta Journal-Constitution </t>
+  </si>
+  <si>
+    <t>Neptune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asbury Park Press </t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Little Rock</t>
+  </si>
+  <si>
+    <t>WEHCO Media Inc. Newspaper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkansas Democrat Gazette </t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona Republic-Yes! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona Republic </t>
+  </si>
+  <si>
+    <t>Newsday Media Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amNewYork </t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>Albuquerque</t>
+  </si>
+  <si>
+    <t>Journal Publishing Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albuquerque Journal </t>
+  </si>
+  <si>
+    <t>Baton Rouge</t>
+  </si>
+  <si>
+    <t>Capital City Press LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advocate </t>
+  </si>
+  <si>
+    <t>Wkdy</t>
+  </si>
+  <si>
+    <t>Sun/Sat</t>
+  </si>
+  <si>
+    <t>Report Date</t>
+  </si>
+  <si>
+    <t>Audit Source</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Parent Company</t>
+  </si>
+  <si>
+    <t>Publication Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2291,6 +3291,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2300,7 +3308,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2308,20 +3316,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2599,7 +3648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A960" workbookViewId="0">
+    <sheetView topLeftCell="A960" workbookViewId="0">
       <selection activeCell="F1017" sqref="F1017"/>
     </sheetView>
   </sheetViews>
@@ -31495,4 +32544,4006 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I135"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H2" s="4">
+        <v>105292</v>
+      </c>
+      <c r="I2" s="4">
+        <v>95315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H3" s="4">
+        <v>107404</v>
+      </c>
+      <c r="I3" s="4">
+        <v>93228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4">
+        <v>320527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H5" s="4">
+        <v>340185</v>
+      </c>
+      <c r="I5" s="4">
+        <v>271592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H6" s="4">
+        <v>156403</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="H7" s="4">
+        <v>177467</v>
+      </c>
+      <c r="I7" s="4">
+        <v>126816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H8" s="4">
+        <v>110968</v>
+      </c>
+      <c r="I8" s="4">
+        <v>70567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H9" s="4">
+        <v>297525</v>
+      </c>
+      <c r="I9" s="4">
+        <v>174587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H10" s="4">
+        <v>330704</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4">
+        <v>364556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H12" s="4">
+        <v>124092</v>
+      </c>
+      <c r="I12" s="4">
+        <v>101200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4">
+        <v>675258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H14" s="4">
+        <v>106819</v>
+      </c>
+      <c r="I14" s="4">
+        <v>68697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H15" s="4">
+        <v>106195</v>
+      </c>
+      <c r="I15" s="4">
+        <v>91365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H16" s="4">
+        <v>365059</v>
+      </c>
+      <c r="I16" s="4">
+        <v>239550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H17" s="4">
+        <v>180776</v>
+      </c>
+      <c r="I17" s="4">
+        <v>129478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H18" s="4">
+        <v>101725</v>
+      </c>
+      <c r="I18" s="4">
+        <v>110731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="H19" s="4">
+        <v>170605</v>
+      </c>
+      <c r="I19" s="4">
+        <v>126920</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H20" s="4">
+        <v>185720</v>
+      </c>
+      <c r="I20" s="4">
+        <v>189216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H21" s="4">
+        <v>724976</v>
+      </c>
+      <c r="I21" s="4">
+        <v>478802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="H22" s="4">
+        <v>163741</v>
+      </c>
+      <c r="I22" s="4">
+        <v>103426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H23" s="4">
+        <v>231249</v>
+      </c>
+      <c r="I23" s="4">
+        <v>133859</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H24" s="4">
+        <v>119281</v>
+      </c>
+      <c r="I24" s="4">
+        <v>84247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H25" s="4">
+        <v>151598</v>
+      </c>
+      <c r="I25" s="4">
+        <v>109060</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H26" s="4">
+        <v>395433</v>
+      </c>
+      <c r="I26" s="4">
+        <v>318350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4">
+        <v>207428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H28" s="4">
+        <v>140192</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="H29" s="4">
+        <v>339526</v>
+      </c>
+      <c r="I29" s="4">
+        <v>275077</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="H30" s="4">
+        <v>150117</v>
+      </c>
+      <c r="I30" s="4">
+        <v>99899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="H31" s="4">
+        <v>250430</v>
+      </c>
+      <c r="I31" s="4">
+        <v>200186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H32" s="4">
+        <v>119460</v>
+      </c>
+      <c r="I32" s="4">
+        <v>109343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="H33" s="4">
+        <v>154297</v>
+      </c>
+      <c r="I33" s="4">
+        <v>108616</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H34" s="4">
+        <v>119450</v>
+      </c>
+      <c r="I34" s="4">
+        <v>91902</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H35" s="4">
+        <v>395910</v>
+      </c>
+      <c r="I35" s="4">
+        <v>331223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H36" s="4">
+        <v>119573</v>
+      </c>
+      <c r="I36" s="4">
+        <v>39857</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H37" s="4">
+        <v>143112</v>
+      </c>
+      <c r="I37" s="4">
+        <v>93014</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H38" s="4">
+        <v>162952</v>
+      </c>
+      <c r="I38" s="4">
+        <v>77404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H39" s="4">
+        <v>344674</v>
+      </c>
+      <c r="I39" s="4">
+        <v>197057</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H40" s="4">
+        <v>231455</v>
+      </c>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>981</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H41" s="4">
+        <v>491857</v>
+      </c>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>980</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H42" s="4">
+        <v>185037</v>
+      </c>
+      <c r="I42" s="4">
+        <v>179627</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="4">
+        <v>234419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4">
+        <v>151792</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H45" s="4">
+        <v>100255</v>
+      </c>
+      <c r="I45" s="4">
+        <v>66116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>971</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H46" s="4">
+        <v>191788</v>
+      </c>
+      <c r="I46" s="4">
+        <v>134608</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H47" s="4">
+        <v>112002</v>
+      </c>
+      <c r="I47" s="4">
+        <v>112002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>968</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H48" s="4">
+        <v>104006</v>
+      </c>
+      <c r="I48" s="4">
+        <v>71177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H49" s="4">
+        <v>403258</v>
+      </c>
+      <c r="I49" s="4">
+        <v>323086</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H50" s="4">
+        <v>178768</v>
+      </c>
+      <c r="I50" s="4">
+        <v>151205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H51" s="4">
+        <v>167289</v>
+      </c>
+      <c r="I51" s="4">
+        <v>158676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="4">
+        <v>292110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H53" s="4">
+        <v>393236</v>
+      </c>
+      <c r="I53" s="4">
+        <v>303851</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H54" s="4">
+        <v>285959</v>
+      </c>
+      <c r="I54" s="4">
+        <v>13448</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H55" s="4">
+        <v>199636</v>
+      </c>
+      <c r="I55" s="4">
+        <v>195869</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H56" s="4">
+        <v>195316</v>
+      </c>
+      <c r="I56" s="4">
+        <v>126111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H57" s="4">
+        <v>251638</v>
+      </c>
+      <c r="I57" s="4">
+        <v>181167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="4">
+        <v>255091</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="H59" s="4">
+        <v>381021</v>
+      </c>
+      <c r="I59" s="4">
+        <v>253909</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>941</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H60" s="4">
+        <v>147259</v>
+      </c>
+      <c r="I60" s="4">
+        <v>125669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>940</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="4">
+        <v>498556</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>936</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H62" s="4">
+        <v>897004</v>
+      </c>
+      <c r="I62" s="4">
+        <v>618048</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="4">
+        <v>125599</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="4">
+        <v>206861</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>931</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="4">
+        <v>134916</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H66" s="4">
+        <v>232982</v>
+      </c>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H67" s="4">
+        <v>278255</v>
+      </c>
+      <c r="I67" s="4">
+        <v>152111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H68" s="4">
+        <v>115938</v>
+      </c>
+      <c r="I68" s="4">
+        <v>82690</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H69" s="4">
+        <v>184938</v>
+      </c>
+      <c r="I69" s="4">
+        <v>187637</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H70" s="4">
+        <v>376245</v>
+      </c>
+      <c r="I70" s="4">
+        <v>427121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H71" s="4">
+        <v>2586894</v>
+      </c>
+      <c r="I71" s="4">
+        <v>2203372</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H72" s="4">
+        <v>158998</v>
+      </c>
+      <c r="I72" s="4">
+        <v>132913</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="H73" s="4">
+        <v>159568</v>
+      </c>
+      <c r="I73" s="4">
+        <v>118295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H74" s="4">
+        <v>366686</v>
+      </c>
+      <c r="I74" s="4">
+        <v>331142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H75" s="3"/>
+      <c r="I75" s="4">
+        <v>958058</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H76" s="4">
+        <v>147582</v>
+      </c>
+      <c r="I76" s="4">
+        <v>98279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H77" s="4">
+        <v>133489</v>
+      </c>
+      <c r="I77" s="4">
+        <v>105405</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H78" s="4">
+        <v>264113</v>
+      </c>
+      <c r="I78" s="4">
+        <v>144521</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H79" s="3"/>
+      <c r="I79" s="4">
+        <v>224664</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H80" s="3"/>
+      <c r="I80" s="4">
+        <v>327839</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H81" s="4">
+        <v>200407</v>
+      </c>
+      <c r="I81" s="4">
+        <v>178599</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="H82" s="4">
+        <v>221613</v>
+      </c>
+      <c r="I82" s="4">
+        <v>198520</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="H83" s="4">
+        <v>132768</v>
+      </c>
+      <c r="I83" s="4">
+        <v>132768</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H84" s="4">
+        <v>109065</v>
+      </c>
+      <c r="I84" s="4">
+        <v>66348</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H85" s="4">
+        <v>420586</v>
+      </c>
+      <c r="I85" s="4">
+        <v>258127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H86" s="4">
+        <v>237097</v>
+      </c>
+      <c r="I86" s="4">
+        <v>160228</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H87" s="4">
+        <v>270354</v>
+      </c>
+      <c r="I87" s="4">
+        <v>187208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H88" s="4">
+        <v>126638</v>
+      </c>
+      <c r="I88" s="4">
+        <v>76893</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H89" s="4">
+        <v>133042</v>
+      </c>
+      <c r="I89" s="4">
+        <v>80677</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H90" s="3"/>
+      <c r="I90" s="4">
+        <v>167945</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H91" s="4">
+        <v>122896</v>
+      </c>
+      <c r="I91" s="4">
+        <v>109673</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H92" s="3"/>
+      <c r="I92" s="4">
+        <v>135660</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="H93" s="4">
+        <v>121959</v>
+      </c>
+      <c r="I93" s="4">
+        <v>95661</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H94" s="4">
+        <v>222230</v>
+      </c>
+      <c r="I94" s="4">
+        <v>155149</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H95" s="4">
+        <v>220803</v>
+      </c>
+      <c r="I95" s="4">
+        <v>151023</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H96" s="4">
+        <v>214140</v>
+      </c>
+      <c r="I96" s="4">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H97" s="4">
+        <v>265230</v>
+      </c>
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H98" s="4">
+        <v>172359</v>
+      </c>
+      <c r="I98" s="4">
+        <v>111852</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H99" s="4">
+        <v>119348</v>
+      </c>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H100" s="4">
+        <v>261637</v>
+      </c>
+      <c r="I100" s="4">
+        <v>194040</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H101" s="4">
+        <v>311272</v>
+      </c>
+      <c r="I101" s="4">
+        <v>236984</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H102" s="4">
+        <v>210908</v>
+      </c>
+      <c r="I102" s="4">
+        <v>139376</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H103" s="3"/>
+      <c r="I103" s="4">
+        <v>136634</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H104" s="4">
+        <v>264939</v>
+      </c>
+      <c r="I104" s="4">
+        <v>209863</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H105" s="3"/>
+      <c r="I105" s="4">
+        <v>101329</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="H106" s="4">
+        <v>473834</v>
+      </c>
+      <c r="I106" s="4">
+        <v>287308</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H107" s="3"/>
+      <c r="I107" s="4">
+        <v>129797</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H108" s="4">
+        <v>251454</v>
+      </c>
+      <c r="I108" s="4">
+        <v>123497</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H109" s="4">
+        <v>333059</v>
+      </c>
+      <c r="I109" s="4">
+        <v>210396</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H110" s="3"/>
+      <c r="I110" s="4">
+        <v>158145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H111" s="4">
+        <v>145847</v>
+      </c>
+      <c r="I111" s="4">
+        <v>84716</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H112" s="4">
+        <v>82205</v>
+      </c>
+      <c r="I112" s="4">
+        <v>102029</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H113" s="4">
+        <v>192816</v>
+      </c>
+      <c r="I113" s="4">
+        <v>152292</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H114" s="4">
+        <v>130539</v>
+      </c>
+      <c r="I114" s="4">
+        <v>111929</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H115" s="4">
+        <v>171215</v>
+      </c>
+      <c r="I115" s="4">
+        <v>126412</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H116" s="4">
+        <v>108176</v>
+      </c>
+      <c r="I116" s="4">
+        <v>95556</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H117" s="3"/>
+      <c r="I117" s="4">
+        <v>430746</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="H118" s="4">
+        <v>175452</v>
+      </c>
+      <c r="I118" s="4">
+        <v>133897</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H119" s="4">
+        <v>102278</v>
+      </c>
+      <c r="I119" s="4">
+        <v>90093</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="H120" s="4">
+        <v>268316</v>
+      </c>
+      <c r="I120" s="4">
+        <v>206702</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="H121" s="4">
+        <v>125669</v>
+      </c>
+      <c r="I121" s="4">
+        <v>125669</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A122" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="H122" s="3"/>
+      <c r="I122" s="4">
+        <v>668158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H123" s="4">
+        <v>289882</v>
+      </c>
+      <c r="I123" s="4">
+        <v>266339</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H124" s="4">
+        <v>102758</v>
+      </c>
+      <c r="I124" s="4">
+        <v>65962</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H125" s="4">
+        <v>118475</v>
+      </c>
+      <c r="I125" s="4">
+        <v>109360</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="H126" s="4">
+        <v>161915</v>
+      </c>
+      <c r="I126" s="4">
+        <v>97281</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H127" s="4">
+        <v>1227810</v>
+      </c>
+      <c r="I127" s="4">
+        <v>2417202</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H128" s="4">
+        <v>213786</v>
+      </c>
+      <c r="I128" s="3"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H129" s="4">
+        <v>2400592</v>
+      </c>
+      <c r="I129" s="4">
+        <v>1731524</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H130" s="4">
+        <v>152458</v>
+      </c>
+      <c r="I130" s="4">
+        <v>137376</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="H131" s="4">
+        <v>148414</v>
+      </c>
+      <c r="I131" s="4">
+        <v>146155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H132" s="4">
+        <v>1342396</v>
+      </c>
+      <c r="I132" s="4">
+        <v>1347836</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H133" s="4">
+        <v>571785</v>
+      </c>
+      <c r="I133" s="4">
+        <v>389154</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="H134" s="4">
+        <v>198355</v>
+      </c>
+      <c r="I134" s="4">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H135" s="4">
+        <v>133296</v>
+      </c>
+      <c r="I135" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="Advocate "/>
+    <hyperlink ref="A3" display="Albuquerque Journal "/>
+    <hyperlink ref="A4" display="amNewYork "/>
+    <hyperlink ref="A5" display="Arizona Republic "/>
+    <hyperlink ref="A6" display="Arizona Republic-Yes! "/>
+    <hyperlink ref="A7" display="Arkansas Democrat Gazette "/>
+    <hyperlink ref="A8" display="Asbury Park Press "/>
+    <hyperlink ref="A9" display="Atlanta Journal-Constitution "/>
+    <hyperlink ref="A10" display="Atlanta Journal-Constitution-Buyers Edge Select "/>
+    <hyperlink ref="A11" display="Atlanta Journal-Constitution-Evening Edge "/>
+    <hyperlink ref="A12" display="Austin American-Statesman "/>
+    <hyperlink ref="A13" display="Austin American-Statesman-Statesman Tmc/Red Plum "/>
+    <hyperlink ref="A14" display="The Birmingham News "/>
+    <hyperlink ref="A15" display="Blade "/>
+    <hyperlink ref="A16" display="Boston Globe "/>
+    <hyperlink ref="A17" display="Buffalo News "/>
+    <hyperlink ref="A19" display="Charlotte Observer "/>
+    <hyperlink ref="A20" display="Chicago Sun-Times "/>
+    <hyperlink ref="A21" display="Chicago Tribune "/>
+    <hyperlink ref="A22" display="Cincinnati Enquirer "/>
+    <hyperlink ref="A23" display="Columbus Dispatch "/>
+    <hyperlink ref="A24" display="Commercial Appeal "/>
+    <hyperlink ref="A25" display="Courier-Journal "/>
+    <hyperlink ref="A26" display="Daily News "/>
+    <hyperlink ref="A27" display="Daily News-Impacto Usa "/>
+    <hyperlink ref="A28" display="Daily News-The Weekend Spotlight "/>
+    <hyperlink ref="A29" display="Dallas Morning News "/>
+    <hyperlink ref="A30" display="Dallas Morning News-Al Dia "/>
+    <hyperlink ref="A31" display="Dallas Morning News-Briefing "/>
+    <hyperlink ref="A32" display="Dayton Daily News "/>
+    <hyperlink ref="A33" display="Dayton Daily News/Springfield News-Sun "/>
+    <hyperlink ref="A34" display="Democrat And Chronicle "/>
+    <hyperlink ref="A35" display="The Denver Post/The Sunday Denver Post "/>
+    <hyperlink ref="A36" display="The Denver Post/The Sunday Denver Post-Sunday Select "/>
+    <hyperlink ref="A37" display="Des Moines Register "/>
+    <hyperlink ref="A38" display="Deseret Morning News "/>
+    <hyperlink ref="A39" display="Detroit Free Press "/>
+    <hyperlink ref="A40" display="Detroit Free Press, The Detroit News "/>
+    <hyperlink ref="A41" display="Detroit Free Press, The Detroit News-Your Essential Shopper "/>
+    <hyperlink ref="A42" display="El Nuevo Dia "/>
+    <hyperlink ref="A43" display="El Vocero de Puerto Rico "/>
+    <hyperlink ref="A44" display="Express "/>
+    <hyperlink ref="A45" display="Florida Times-Union "/>
+    <hyperlink ref="A46" display="Fort Worth Star-Telegram "/>
+    <hyperlink ref="A47" display="Fort Worth Star-Telegram-La Estrella "/>
+    <hyperlink ref="A48" display="Fresno Bee "/>
+    <hyperlink ref="A50" display="Hartford Courant "/>
+    <hyperlink ref="A51" display="Honolulu Star-Advertiser "/>
+    <hyperlink ref="A52" display="Honolulu Star-Advertiser-Midweek "/>
+    <hyperlink ref="A53" display="Houston Chronicle "/>
+    <hyperlink ref="A54" display="Houston Chronicle-Community Extra "/>
+    <hyperlink ref="A55" display="Houston Chronicle-La Voz De Houston "/>
+    <hyperlink ref="A56" display="Indianapolis Star "/>
+    <hyperlink ref="A57" display="Kansas City Star "/>
+    <hyperlink ref="A58" display="La Opinion-La Opinion Contigo "/>
+    <hyperlink ref="A60" display="Las Vegas Review-Journal "/>
+    <hyperlink ref="A61" display="Las Vegas Review-Journal-View "/>
+    <hyperlink ref="A62" display="Los Angeles Times "/>
+    <hyperlink ref="A63" display="Los Angeles Times-Hoy "/>
+    <hyperlink ref="A64" display="Metro New York "/>
+    <hyperlink ref="A65" display="Metro Puerto Rico LLC "/>
+    <hyperlink ref="A66" display="Miami Herald/El Nuevo Herald "/>
+    <hyperlink ref="A67" display="Milwaukee Journal Sentinel "/>
+    <hyperlink ref="A68" display="Morning Call "/>
+    <hyperlink ref="A70" display="New York Post "/>
+    <hyperlink ref="A71" display="New York Times "/>
+    <hyperlink ref="A72" display="New York Times-International New York Times "/>
+    <hyperlink ref="A73" display="News &amp; Observer "/>
+    <hyperlink ref="A74" display="Newsday "/>
+    <hyperlink ref="A75" display="Newsday-Hometown Shopper "/>
+    <hyperlink ref="A76" display="Oklahoman "/>
+    <hyperlink ref="A77" display="Omaha World-Herald "/>
+    <hyperlink ref="A78" display="Orange County Register "/>
+    <hyperlink ref="A79" display="Orange County Register-Excelsior "/>
+    <hyperlink ref="A80" display="Orange County Register-O C Saver "/>
+    <hyperlink ref="A81" display="Oregonian "/>
+    <hyperlink ref="A82" display="Orlando Sentinel "/>
+    <hyperlink ref="A83" display="Orlando Sentinel-El Sentinel "/>
+    <hyperlink ref="A84" display="Patriot-News Sunday Patriot News "/>
+    <hyperlink ref="A85" display="Philadelphia Inquirer "/>
+    <hyperlink ref="A86" display="Pittsburgh Post-Gazette "/>
+    <hyperlink ref="A87" display="Plain Dealer Plain Dealer Sunday "/>
+    <hyperlink ref="A88" display="Post-Standard "/>
+    <hyperlink ref="A89" display="Press-Enterprise "/>
+    <hyperlink ref="A90" display="Providence Journal-A La Carte "/>
+    <hyperlink ref="A92" display="Republican-Extra "/>
+    <hyperlink ref="A93" display="Richmond Times-Dispatch "/>
+    <hyperlink ref="A94" display="Sacramento Bee "/>
+    <hyperlink ref="A95" display="St. Louis Post-Dispatch "/>
+    <hyperlink ref="A96" display="St. Louis Post-Dispatch-Save Now "/>
+    <hyperlink ref="A97" display="Salt Lake Tribune/Deseret News "/>
+    <hyperlink ref="A98" display="San Antonio Express-News "/>
+    <hyperlink ref="A99" display="San Antonio Express-News-The San Antonio Light "/>
+    <hyperlink ref="A100" display="San Francisco Chronicle "/>
+    <hyperlink ref="A101" display="Seattle Times "/>
+    <hyperlink ref="A102" display="South Florida Sun-Sentinel "/>
+    <hyperlink ref="A103" display="South Florida Sun-Sentinel-El Sentinel "/>
+    <hyperlink ref="A104" display="St. Paul Pioneer Press "/>
+    <hyperlink ref="A105" display="Standard-Examiner-Se Plus "/>
+    <hyperlink ref="A106" display="Star Tribune "/>
+    <hyperlink ref="A107" display="State-Yes - Sunday Select "/>
+    <hyperlink ref="A108" display="The Baltimore Sun "/>
+    <hyperlink ref="A109" display="Tampa Bay Times (formerly St. Petersburg Times) "/>
+    <hyperlink ref="A110" display="Telegram &amp; Gazette, Sunday Telegram-Telegram &amp; Gazette Direct "/>
+    <hyperlink ref="A111" display="Tennessean "/>
+    <hyperlink ref="A112" display="The Detroit News "/>
+    <hyperlink ref="A113" display="The Mercury News "/>
+    <hyperlink ref="A114" display="The Mercury News-Contra Costa Times "/>
+    <hyperlink ref="A115" display="The Miami Herald "/>
+    <hyperlink ref="A116" display="The Palm Beach Post "/>
+    <hyperlink ref="A117" display="The Palm Beach Post-Red Plum "/>
+    <hyperlink ref="A118" display="The Record "/>
+    <hyperlink ref="A119" display="The Salt Lake Tribune "/>
+    <hyperlink ref="A120" display="The San Diego Union-Tribune "/>
+    <hyperlink ref="A121" display="The San Diego Union-Tribune-Hoy San Diego "/>
+    <hyperlink ref="A122" display="The San Diego Union-Tribune-Local Community Values "/>
+    <hyperlink ref="A123" display="The Star-Ledger "/>
+    <hyperlink ref="A124" display="Times Union "/>
+    <hyperlink ref="A125" display="Times-Picayune "/>
+    <hyperlink ref="A126" display="Tribune Review "/>
+    <hyperlink ref="A127" display="USA Today "/>
+    <hyperlink ref="A128" display="USA Today-Usa Today Life "/>
+    <hyperlink ref="A129" display="USA Today-Usa Today Local/Life "/>
+    <hyperlink ref="A131" display="Virginian-Pilot "/>
+    <hyperlink ref="A132" display="Wall Street Journal Eastern Central Western "/>
+    <hyperlink ref="A133" display="Washington Post "/>
+    <hyperlink ref="A134" display="Washington Post-Savings Now "/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>